--- a/www/IndicatorsPerCountry/Slovakia_GDPperCapita_TerritorialRef_1993_2012_CCode_703.xlsx
+++ b/www/IndicatorsPerCountry/Slovakia_GDPperCapita_TerritorialRef_1993_2012_CCode_703.xlsx
@@ -126,13 +126,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Slovakia_GDPperCapita_TerritorialRef_1993_2012_CCode_703.xlsx
+++ b/www/IndicatorsPerCountry/Slovakia_GDPperCapita_TerritorialRef_1993_2012_CCode_703.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,67 +36,100 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>7763.05338406</t>
-  </si>
-  <si>
-    <t>6605.81148551</t>
-  </si>
-  <si>
-    <t>6158.22692909</t>
-  </si>
-  <si>
-    <t>6250.92512933</t>
-  </si>
-  <si>
-    <t>6611.90288218</t>
-  </si>
-  <si>
-    <t>6976.95459742</t>
-  </si>
-  <si>
-    <t>7445.14152673</t>
-  </si>
-  <si>
-    <t>7761.63707665</t>
-  </si>
-  <si>
-    <t>8089.25391077</t>
-  </si>
-  <si>
-    <t>8084.05890573</t>
-  </si>
-  <si>
-    <t>8187.72961602</t>
-  </si>
-  <si>
-    <t>8465.99058594</t>
-  </si>
-  <si>
-    <t>8845.18997052</t>
-  </si>
-  <si>
-    <t>9256.66816212</t>
-  </si>
-  <si>
-    <t>9712.01441117</t>
-  </si>
-  <si>
-    <t>10343.5124904</t>
-  </si>
-  <si>
-    <t>11190.0541415</t>
-  </si>
-  <si>
-    <t>12346.0596604</t>
-  </si>
-  <si>
-    <t>13037.0861218</t>
-  </si>
-  <si>
-    <t>12376.81881</t>
-  </si>
-  <si>
-    <t>12877.4146255</t>
+    <t>11815</t>
+  </si>
+  <si>
+    <t>12242</t>
+  </si>
+  <si>
+    <t>12473</t>
+  </si>
+  <si>
+    <t>12659</t>
+  </si>
+  <si>
+    <t>12734</t>
+  </si>
+  <si>
+    <t>12374</t>
+  </si>
+  <si>
+    <t>10537.4103281024</t>
+  </si>
+  <si>
+    <t>9838.61485840115</t>
+  </si>
+  <si>
+    <t>10481.1152836241</t>
+  </si>
+  <si>
+    <t>11063.9487142439</t>
+  </si>
+  <si>
+    <t>11874.3980037823</t>
+  </si>
+  <si>
+    <t>12622.9095750226</t>
+  </si>
+  <si>
+    <t>13335.4589939449</t>
+  </si>
+  <si>
+    <t>13822.1874047156</t>
+  </si>
+  <si>
+    <t>13750.3330903464</t>
+  </si>
+  <si>
+    <t>13904.9853726498</t>
+  </si>
+  <si>
+    <t>14361.9012127386</t>
+  </si>
+  <si>
+    <t>14984.7311249787</t>
+  </si>
+  <si>
+    <t>15773.0947996538</t>
+  </si>
+  <si>
+    <t>16570.8618948388</t>
+  </si>
+  <si>
+    <t>17649.5203820258</t>
+  </si>
+  <si>
+    <t>19099.4276773689</t>
+  </si>
+  <si>
+    <t>21109.9388472468</t>
+  </si>
+  <si>
+    <t>22231.9881558054</t>
+  </si>
+  <si>
+    <t>20953.0366618401</t>
+  </si>
+  <si>
+    <t>21941.2121615904</t>
+  </si>
+  <si>
+    <t>22483</t>
+  </si>
+  <si>
+    <t>22816</t>
+  </si>
+  <si>
+    <t>23132</t>
+  </si>
+  <si>
+    <t>23703</t>
+  </si>
+  <si>
+    <t>24588</t>
+  </si>
+  <si>
+    <t>25364</t>
   </si>
   <si>
     <t>Description</t>
@@ -211,7 +244,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1990.0</v>
+        <v>1985.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -228,7 +261,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1991.0</v>
+        <v>1986.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -245,7 +278,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1992.0</v>
+        <v>1987.0</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -262,7 +295,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1993.0</v>
+        <v>1988.0</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -279,7 +312,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1994.0</v>
+        <v>1989.0</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -296,7 +329,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1995.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -313,7 +346,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1996.0</v>
+        <v>1991.0</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -330,7 +363,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1997.0</v>
+        <v>1992.0</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -347,7 +380,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1998.0</v>
+        <v>1993.0</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -364,7 +397,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1999.0</v>
+        <v>1994.0</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -381,7 +414,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>2000.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -398,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>2001.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -415,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>2002.0</v>
+        <v>1997.0</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -432,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>2003.0</v>
+        <v>1998.0</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -449,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>2004.0</v>
+        <v>1999.0</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
@@ -466,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>2005.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -483,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>2006.0</v>
+        <v>2001.0</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -500,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>2007.0</v>
+        <v>2002.0</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -517,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>2008.0</v>
+        <v>2003.0</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
@@ -534,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>2009.0</v>
+        <v>2004.0</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
@@ -551,10 +584,197 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>2010.0</v>
+        <v>2005.0</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>703.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -572,50 +792,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
